--- a/data/trans_camb/P28A_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P28A_1_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-31,75</t>
+          <t>-44,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-26,3</t>
+          <t>-35,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-36,05</t>
+          <t>-43,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-31,45</t>
+          <t>-30,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,33</t>
+          <t>-36,76</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-31,05</t>
+          <t>-44,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-38,28</t>
+          <t>-36,67</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-33,16</t>
+          <t>-36,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-31,17</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-29,02</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-37,35</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-32,47</t>
+          <t>-44,2</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-41,44; -19,39</t>
+          <t>-57,81; -32,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,58; -15,09</t>
+          <t>-48,69; -20,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-45,3; -24,67</t>
+          <t>-55,72; -29,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,54; -22,66</t>
+          <t>-42,43; -18,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,56; -21,13</t>
+          <t>-47,27; -26,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,04; -23,16</t>
+          <t>-54,25; -34,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-46,0; -25,51</t>
+          <t>-46,85; -28,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,79; -24,49</t>
+          <t>-44,51; -27,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-37,06; -23,55</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-34,65; -22,88</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-42,9; -29,31</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-38,0; -26,6</t>
+          <t>-51,65; -35,54</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-58,16%</t>
+          <t>-73,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-48,18%</t>
+          <t>-58,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-66,04%</t>
+          <t>-71,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-57,6%</t>
+          <t>-49,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-50,56%</t>
+          <t>-60,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-51,76%</t>
+          <t>-73,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-63,81%</t>
+          <t>-60,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-55,28%</t>
+          <t>-59,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-54,06%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-50,34%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-64,78%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-56,32%</t>
+          <t>-72,43%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,9; -37,78</t>
+          <t>-84,07; -58,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,13; -29,58</t>
+          <t>-71,23; -37,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,02; -45,63</t>
+          <t>-81,06; -51,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,48; -45,48</t>
+          <t>-63,39; -33,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,51; -37,49</t>
+          <t>-70,03; -49,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,64; -42,76</t>
+          <t>-79,81; -64,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,49; -43,66</t>
+          <t>-70,15; -49,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,38; -43,97</t>
+          <t>-67,55; -49,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,49; -42,44</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-57,04; -40,39</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-72,07; -51,15</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-63,66; -48,08</t>
+          <t>-78,16; -62,83</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-21,51</t>
+          <t>-25,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-22,14</t>
+          <t>-27,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-27,6</t>
+          <t>-31,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,5</t>
+          <t>-25,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,0</t>
+          <t>-24,76</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,69</t>
+          <t>-34,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-30,21</t>
+          <t>-25,42</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-19,72</t>
+          <t>-26,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-21,75</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-20,53</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-28,86</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-21,31</t>
+          <t>-32,99</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,69; -14,95</t>
+          <t>-34,62; -17,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,25; -15,94</t>
+          <t>-35,21; -19,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-34,32; -20,92</t>
+          <t>-39,87; -23,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,57; -15,96</t>
+          <t>-32,72; -17,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,12; -16,57</t>
+          <t>-32,33; -17,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,1; -13,35</t>
+          <t>-40,97; -27,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,17; -25,25</t>
+          <t>-30,98; -19,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,81; -13,98</t>
+          <t>-31,07; -20,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-25,5; -17,52</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-24,67; -16,63</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-33,23; -24,85</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-25,34; -16,99</t>
+          <t>-37,96; -27,19</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-42,93%</t>
+          <t>-47,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-44,19%</t>
+          <t>-51,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-55,09%</t>
+          <t>-59,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-44,9%</t>
+          <t>-47,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-42,78%</t>
+          <t>-46,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,35%</t>
+          <t>-63,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-58,75%</t>
+          <t>-47,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-38,35%</t>
+          <t>-48,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-42,85%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-40,45%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-56,86%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-41,98%</t>
+          <t>-61,6%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,75; -30,12</t>
+          <t>-58,58; -34,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,46; -33,8</t>
+          <t>-60,05; -39,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,87; -44,09</t>
+          <t>-68,92; -47,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,79; -33,75</t>
+          <t>-56,47; -35,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,32; -34,06</t>
+          <t>-54,79; -34,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,79; -27,13</t>
+          <t>-70,07; -55,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,71; -51,07</t>
+          <t>-54,81; -38,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,93; -28,2</t>
+          <t>-54,76; -41,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,64; -35,89</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-46,89; -33,8</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-63,07; -50,03</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-48,74; -34,7</t>
+          <t>-67,39; -54,42</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-29,53</t>
+          <t>-27,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-28,69</t>
+          <t>-29,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-40,4</t>
+          <t>-39,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-33,63</t>
+          <t>-30,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-25,38</t>
+          <t>-25,73</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-19,67</t>
+          <t>-38,68</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-34,42</t>
+          <t>-28,77</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-28,17</t>
+          <t>-27,36</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-27,5</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-24,2</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-37,43</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-30,93</t>
+          <t>-38,98</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -22,11</t>
+          <t>-37,18; -16,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-35,23; -21,63</t>
+          <t>-38,2; -19,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-47,01; -34,27</t>
+          <t>-46,77; -30,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-41,71; -24,83</t>
+          <t>-37,51; -21,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,89; -18,87</t>
+          <t>-33,14; -17,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,71; -12,39</t>
+          <t>-45,34; -31,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-39,93; -28,01</t>
+          <t>-34,58; -22,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,05; -20,53</t>
+          <t>-32,98; -21,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-32,6; -22,89</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-28,95; -19,28</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-41,54; -32,89</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-36,12; -25,17</t>
+          <t>-44,56; -33,22</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-48,99%</t>
+          <t>-46,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-47,6%</t>
+          <t>-50,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-67,02%</t>
+          <t>-67,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-55,8%</t>
+          <t>-51,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-45,26%</t>
+          <t>-43,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-35,08%</t>
+          <t>-65,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-61,39%</t>
+          <t>-48,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-50,25%</t>
+          <t>-46,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-47,24%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-41,57%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-64,29%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-53,13%</t>
+          <t>-66,31%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,97; -37,95</t>
+          <t>-59,53; -32,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,46; -37,52</t>
+          <t>-60,22; -37,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,82; -59,62</t>
+          <t>-74,63; -58,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-66,53; -42,51</t>
+          <t>-59,15; -38,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,59; -35,28</t>
+          <t>-52,27; -32,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,56; -23,73</t>
+          <t>-71,68; -57,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-67,8; -52,84</t>
+          <t>-55,96; -39,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,81; -38,25</t>
+          <t>-53,45; -38,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,2; -40,56</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-48,23; -34,21</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-69,06; -59,02</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-60,95; -44,97</t>
+          <t>-71,2; -61,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-25,77</t>
+          <t>-22,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-24,8</t>
+          <t>-25,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-33,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-27,8</t>
+          <t>-21,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-24,8</t>
+          <t>-24,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-21,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-33,18</t>
+          <t>-22,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-25,52</t>
+          <t>-24,56</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-25,28</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-23,25</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-33,16</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-26,67</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-30,05; -21,28</t>
+          <t>-28,32; -15,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-29,41; -20,43</t>
+          <t>-31,86; -16,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-37,17; -28,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,84; -23,13</t>
+          <t>-26,77; -16,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,41; -21,31</t>
+          <t>-29,51; -17,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,2; -18,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-36,42; -28,71</t>
+          <t>-26,16; -17,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-29,42; -21,35</t>
+          <t>-29,22; -19,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-27,85; -22,18</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-25,9; -20,37</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-35,76; -30,1</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-29,83; -23,72</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-47,73%</t>
+          <t>-43,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-45,95%</t>
+          <t>-48,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-61,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-51,49%</t>
+          <t>-43,65%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-45,36%</t>
+          <t>-47,83%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-60,7%</t>
+          <t>-43,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-46,69%</t>
+          <t>-48,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-46,52%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-42,79%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-61,04%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-49,1%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,283 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-54,41; -40,74</t>
+          <t>-52,89; -30,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,22; -39,32</t>
+          <t>-59,65; -32,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,79; -54,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,36; -44,29</t>
+          <t>-51,95; -34,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,89; -39,93</t>
+          <t>-56,98; -36,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,01; -34,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-64,89; -53,31</t>
+          <t>-49,93; -35,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,14; -40,2</t>
+          <t>-55,73; -38,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,53; -41,72</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-46,85; -38,46</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-64,82; -56,38</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-53,33; -44,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-25,22</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-26,47</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-33,29</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-24,37</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-24,37</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-34,04</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-24,79</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-25,4</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-33,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-29,1; -20,61</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-30,37; -22,41</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-37,38; -29,28</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-28,01; -21,01</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-27,93; -20,93</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-37,01; -30,45</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-27,48; -22,09</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-28,04; -22,65</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-36,38; -30,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-47,46%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-49,82%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-62,65%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-45,88%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-45,89%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-64,1%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-46,66%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-47,82%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-63,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-53,27; -39,75</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-55,71; -43,6</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-67,87; -56,24</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-51,34; -41,03</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-50,91; -40,5</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-67,63; -59,28</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-50,42; -42,28</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-51,41; -43,71</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-66,82; -59,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
